--- a/mbp/UK_landings_2015_2019.xlsx
+++ b/mbp/UK_landings_2015_2019.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/ghg/mbp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57092D-91FE-2A46-93A1-97418CCB75DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFDF7F2-C807-E949-B09C-A88F821DF33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{2DF97D2A-2C19-754A-9FDC-5A171C0C9A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$19:$Q$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -440,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -460,7 +463,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -783,7 +785,7 @@
   <dimension ref="A1:Q311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,7 +889,7 @@
       <c r="P2" s="5">
         <v>0.94420387162920505</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -939,11 +941,13 @@
         <v>4.6028498048003678E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,11 +991,13 @@
         <v>7.142171633845242E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1035,11 +1041,13 @@
         <v>9.6569042221499252E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1083,11 +1091,13 @@
         <v>6.4951576837755432E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1131,11 +1141,13 @@
         <v>5.2262332766156352E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1179,11 +1191,13 @@
         <v>4.806586972744809E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1227,11 +1241,13 @@
         <v>5.5608542942707109E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1251,11 +1267,13 @@
         <v>1.4075491978798001E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1325,9 +1343,13 @@
         <v>0.9960347461033604</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1371,9 +1393,13 @@
         <v>1.9022634640167616E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1417,9 +1443,13 @@
         <v>1.7950466378482148E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1463,9 +1493,13 @@
         <v>2.0657590142997715E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1509,9 +1543,13 @@
         <v>5.0155537637932062E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1555,9 +1593,13 @@
         <v>7.2340198617278627E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1651,9 +1693,13 @@
         <v>0.99999961013760863</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1685,9 +1731,13 @@
         <v>2.1021991694617127E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1707,9 +1757,13 @@
         <v>1.6817593355693701E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1841,9 +1895,13 @@
         <v>0.13784254437773588</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1887,9 +1945,13 @@
         <v>3.1407758947823248E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1933,9 +1995,13 @@
         <v>1.755529215852649E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1979,9 +2045,13 @@
         <v>5.2742583250589248E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
@@ -2025,9 +2095,13 @@
         <v>3.3316806700025171E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2065,9 +2139,13 @@
         <v>4.7110339746904802E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2087,9 +2165,13 @@
         <v>1.0231615717284746E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
@@ -2209,9 +2291,13 @@
         <v>6.5179443509306947E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
@@ -2255,9 +2341,13 @@
         <v>7.7427950327400774E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2301,9 +2391,13 @@
         <v>3.1568641976363163E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2347,9 +2441,13 @@
         <v>1.6365838350184095E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2393,9 +2491,13 @@
         <v>1.5684347686861948E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
@@ -2439,9 +2541,13 @@
         <v>8.6061541457303921E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
@@ -2461,9 +2567,13 @@
         <v>4.7248120481581535E-6</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
@@ -2533,9 +2643,13 @@
         <v>0.98341284338520363</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2579,9 +2693,13 @@
         <v>7.9317237606546954E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2625,9 +2743,13 @@
         <v>6.4177519403734529E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
@@ -2671,9 +2793,13 @@
         <v>1.7792623027520829E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2717,9 +2843,13 @@
         <v>3.5511318332609253E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2763,9 +2893,13 @@
         <v>1.0182993288131083E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2791,9 +2925,13 @@
         <v>1.0663803392013766E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
       </c>
@@ -2919,9 +3057,13 @@
         <v>2.7204668635647109E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
@@ -2965,9 +3107,13 @@
         <v>1.2641639985612097E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
@@ -3011,9 +3157,13 @@
         <v>3.6385682903557889E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C53" s="3" t="s">
         <v>14</v>
       </c>
@@ -3057,9 +3207,13 @@
         <v>2.8298600310839241E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3103,9 +3257,13 @@
         <v>2.6688599549112081E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
@@ -3149,9 +3307,13 @@
         <v>1.2174567999518812E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
@@ -3177,9 +3339,13 @@
         <v>3.8540773544709997E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3256,10 +3422,10 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3305,9 +3471,13 @@
         <v>7.0514724319611269E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3351,9 +3521,13 @@
         <v>8.1186936492215164E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3397,9 +3571,13 @@
         <v>2.1343816782945564E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3443,9 +3621,13 @@
         <v>1.7583220157382613E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
@@ -3483,9 +3665,13 @@
         <v>8.240297115785565E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C64" s="3" t="s">
         <v>14</v>
       </c>
@@ -3511,9 +3697,13 @@
         <v>4.2775011469446E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
@@ -3539,9 +3729,13 @@
         <v>2.3391227597608641E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C66" s="3" t="s">
         <v>6</v>
       </c>
@@ -3611,9 +3805,13 @@
         <v>0.98311448549125768</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
@@ -3657,9 +3855,13 @@
         <v>1.1452068693290671E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
@@ -3703,9 +3905,13 @@
         <v>2.7331513649923528E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C70" s="3" t="s">
         <v>12</v>
       </c>
@@ -3749,9 +3955,13 @@
         <v>2.0980633006000681E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
       </c>
@@ -3795,9 +4005,13 @@
         <v>4.7006575613828212E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
       </c>
@@ -3823,9 +4037,13 @@
         <v>6.7438618194541294E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+    <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,9 +4087,13 @@
         <v>6.4583796123973781E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+    <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
@@ -3997,9 +4219,13 @@
         <v>0.18115189881440513</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C77" s="3" t="s">
         <v>10</v>
       </c>
@@ -4043,9 +4269,13 @@
         <v>1.2855341840954118E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C78" s="3" t="s">
         <v>12</v>
       </c>
@@ -4089,9 +4319,13 @@
         <v>5.199851798948163E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+    <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
@@ -4135,9 +4369,13 @@
         <v>1.6212227711941466E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
       </c>
@@ -4181,9 +4419,13 @@
         <v>8.522073869840644E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+    <row r="81" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
@@ -4227,9 +4469,13 @@
         <v>1.2168160201135643E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+    <row r="82" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C82" s="3" t="s">
         <v>14</v>
       </c>
@@ -4311,9 +4557,13 @@
         <v>0.95588719447366888</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+    <row r="84" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C84" s="3" t="s">
         <v>10</v>
       </c>
@@ -4357,9 +4607,13 @@
         <v>2.4413566769332627E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
+    <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
@@ -4403,9 +4657,13 @@
         <v>1.809966380546817E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+    <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C86" s="3" t="s">
         <v>12</v>
       </c>
@@ -4449,9 +4707,13 @@
         <v>1.1875919290459144E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+    <row r="87" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
       </c>
@@ -4495,9 +4757,13 @@
         <v>2.3027788817324017E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+    <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
       </c>
@@ -4541,9 +4807,13 @@
         <v>1.4965080116791912E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+    <row r="89" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4581,9 +4851,13 @@
         <v>2.3419789576067262E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+    <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C90" s="3" t="s">
         <v>14</v>
       </c>
@@ -4621,9 +4895,13 @@
         <v>8.6094795798149677E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+    <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C91" s="3" t="s">
         <v>6</v>
       </c>
@@ -4743,9 +5021,13 @@
         <v>3.4390041080959249E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+    <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4789,9 +5071,13 @@
         <v>4.8474389588758085E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+    <row r="95" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4835,9 +5121,13 @@
         <v>1.7878670727134883E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+    <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
@@ -4881,9 +5171,13 @@
         <v>7.2316334265672599E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+    <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
@@ -4927,9 +5221,13 @@
         <v>2.1800614211946553E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+    <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
@@ -4949,9 +5247,13 @@
         <v>1.8533285835671626E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+    <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C99" s="3" t="s">
         <v>12</v>
       </c>
@@ -4995,9 +5297,13 @@
         <v>1.2517024497117524E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+    <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C100" s="3" t="s">
         <v>13</v>
       </c>
@@ -5217,9 +5523,13 @@
         <v>4.8265012498266348E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+    <row r="105" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C105" s="3" t="s">
         <v>12</v>
       </c>
@@ -5263,9 +5573,13 @@
         <v>1.2742943228980906E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+    <row r="106" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C106" s="3" t="s">
         <v>14</v>
       </c>
@@ -5285,9 +5599,13 @@
         <v>1.2380484047716946E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+    <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>9</v>
       </c>
@@ -5431,9 +5749,13 @@
         <v>0.21364675313289344</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C110" s="3" t="s">
         <v>11</v>
       </c>
@@ -5477,9 +5799,13 @@
         <v>5.6851015323328615E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+    <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
@@ -5523,9 +5849,13 @@
         <v>1.2135764089433805E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+    <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
       </c>
@@ -5569,9 +5899,13 @@
         <v>1.1133829010392783E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+    <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C113" s="3" t="s">
         <v>12</v>
       </c>
@@ -5615,9 +5949,13 @@
         <v>6.3055330788691307E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+    <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
@@ -5643,9 +5981,13 @@
         <v>2.624539152859972E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+    <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C115" s="3" t="s">
         <v>6</v>
       </c>
@@ -5671,9 +6013,13 @@
         <v>4.7898191732280758E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
@@ -5787,9 +6133,13 @@
         <v>0.21011273968911764</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
+    <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C119" s="3" t="s">
         <v>11</v>
       </c>
@@ -5833,9 +6183,13 @@
         <v>6.1592490428862045E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+    <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C120" s="3" t="s">
         <v>5</v>
       </c>
@@ -5873,9 +6227,13 @@
         <v>4.26731670446759E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+    <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C121" s="3" t="s">
         <v>9</v>
       </c>
@@ -5907,9 +6265,13 @@
         <v>1.4012084701236864E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+    <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
       </c>
@@ -6135,9 +6497,13 @@
         <v>6.2117192675964647E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+    <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
       </c>
@@ -6181,9 +6547,13 @@
         <v>6.7112696393822815E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+    <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
@@ -6203,9 +6573,13 @@
         <v>5.0689347729473419E-5</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+    <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C129" s="3" t="s">
         <v>9</v>
       </c>
@@ -6287,9 +6661,13 @@
         <v>0.98163637724935482</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
+    <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C131" s="3" t="s">
         <v>10</v>
       </c>
@@ -6333,9 +6711,13 @@
         <v>1.5005458265147228E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+    <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C132" s="3" t="s">
         <v>11</v>
       </c>
@@ -6379,9 +6761,13 @@
         <v>1.3845971432878753E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
+    <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C133" s="3" t="s">
         <v>6</v>
       </c>
@@ -6419,9 +6805,13 @@
         <v>1.3350153905422703E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+    <row r="134" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C134" s="3" t="s">
         <v>7</v>
       </c>
@@ -6465,9 +6855,13 @@
         <v>5.4726050292010231E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
+    <row r="135" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C135" s="3" t="s">
         <v>8</v>
       </c>
@@ -6499,9 +6893,13 @@
         <v>6.6515828298718957E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+    <row r="136" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C136" s="3" t="s">
         <v>9</v>
       </c>
@@ -6545,9 +6943,13 @@
         <v>2.0503961750797776E-5</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+    <row r="137" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C137" s="3" t="s">
         <v>12</v>
       </c>
@@ -6679,9 +7081,13 @@
         <v>0.13739917043130026</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+    <row r="140" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C140" s="3" t="s">
         <v>9</v>
       </c>
@@ -6725,9 +7131,13 @@
         <v>5.5046382946798383E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
+    <row r="141" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C141" s="3" t="s">
         <v>7</v>
       </c>
@@ -6765,9 +7175,13 @@
         <v>1.8816321685783966E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
+    <row r="142" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C142" s="3" t="s">
         <v>14</v>
       </c>
@@ -6793,9 +7207,13 @@
         <v>4.2636013714613222E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
+    <row r="143" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C143" s="3" t="s">
         <v>10</v>
       </c>
@@ -6815,9 +7233,13 @@
         <v>9.3091733001338916E-8</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+    <row r="144" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C144" s="3" t="s">
         <v>11</v>
       </c>
@@ -6943,9 +7365,13 @@
         <v>0.25513570477589925</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+    <row r="147" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C147" s="3" t="s">
         <v>11</v>
       </c>
@@ -6989,9 +7415,13 @@
         <v>3.5775321208294353E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+    <row r="148" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C148" s="3" t="s">
         <v>10</v>
       </c>
@@ -7035,9 +7465,13 @@
         <v>2.8909542241482657E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+    <row r="149" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C149" s="3" t="s">
         <v>8</v>
       </c>
@@ -7081,9 +7515,13 @@
         <v>3.9934964030020588E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+    <row r="150" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C150" s="3" t="s">
         <v>9</v>
       </c>
@@ -7127,9 +7565,13 @@
         <v>2.2954911066748175E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+    <row r="151" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C151" s="3" t="s">
         <v>12</v>
       </c>
@@ -7173,9 +7615,13 @@
         <v>7.2022237647797812E-5</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+    <row r="152" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C152" s="3" t="s">
         <v>14</v>
       </c>
@@ -7295,9 +7741,13 @@
         <v>6.9275682805121336E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+    <row r="155" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C155" s="3" t="s">
         <v>11</v>
       </c>
@@ -7341,9 +7791,13 @@
         <v>1.4332192505041095E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+    <row r="156" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C156" s="3" t="s">
         <v>10</v>
       </c>
@@ -7387,9 +7841,13 @@
         <v>6.9018901246822124E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+    <row r="157" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C157" s="3" t="s">
         <v>12</v>
       </c>
@@ -7433,9 +7891,13 @@
         <v>6.8641810334377227E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+    <row r="158" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C158" s="3" t="s">
         <v>7</v>
       </c>
@@ -7479,9 +7941,13 @@
         <v>2.6805409730069429E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+    <row r="159" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C159" s="3" t="s">
         <v>6</v>
       </c>
@@ -7601,9 +8067,13 @@
         <v>3.2835274076760672E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+    <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C162" s="3" t="s">
         <v>11</v>
       </c>
@@ -7647,9 +8117,13 @@
         <v>2.3134228644773429E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+    <row r="163" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C163" s="3" t="s">
         <v>12</v>
       </c>
@@ -7693,9 +8167,13 @@
         <v>2.6667933706196132E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+    <row r="164" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C164" s="3" t="s">
         <v>14</v>
       </c>
@@ -7715,9 +8193,13 @@
         <v>3.236800646979919E-5</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+    <row r="165" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C165" s="3" t="s">
         <v>7</v>
       </c>
@@ -7755,9 +8237,13 @@
         <v>1.256296302724593E-5</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+    <row r="166" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C166" s="3" t="s">
         <v>9</v>
       </c>
@@ -7851,9 +8337,13 @@
         <v>0.99269595678765687</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+    <row r="168" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C168" s="3" t="s">
         <v>11</v>
       </c>
@@ -7897,9 +8387,13 @@
         <v>5.1342602042754515E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+    <row r="169" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C169" s="3" t="s">
         <v>12</v>
       </c>
@@ -7919,9 +8413,13 @@
         <v>1.585055890180227E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+    <row r="170" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C170" s="3" t="s">
         <v>9</v>
       </c>
@@ -7965,9 +8463,13 @@
         <v>5.3854915628690175E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+    <row r="171" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C171" s="3" t="s">
         <v>6</v>
       </c>
@@ -7987,9 +8489,13 @@
         <v>4.1739805108079314E-5</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+    <row r="172" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C172" s="3" t="s">
         <v>7</v>
       </c>
@@ -8071,9 +8577,13 @@
         <v>0.98361182101200351</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+    <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C174" s="3" t="s">
         <v>11</v>
       </c>
@@ -8117,9 +8627,13 @@
         <v>7.9781482751162397E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+    <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C175" s="3" t="s">
         <v>5</v>
       </c>
@@ -8163,9 +8677,13 @@
         <v>4.042496246745411E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+    <row r="176" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C176" s="3" t="s">
         <v>7</v>
       </c>
@@ -8209,9 +8727,13 @@
         <v>3.9234701079198051E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+    <row r="177" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C177" s="3" t="s">
         <v>12</v>
       </c>
@@ -8255,9 +8777,13 @@
         <v>2.3127384108971905E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+    <row r="178" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C178" s="3" t="s">
         <v>8</v>
       </c>
@@ -8301,9 +8827,13 @@
         <v>1.9265359663093215E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+    <row r="179" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C179" s="3" t="s">
         <v>10</v>
       </c>
@@ -8347,9 +8877,13 @@
         <v>1.1097126464405516E-5</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+    <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C180" s="3" t="s">
         <v>14</v>
       </c>
@@ -8531,9 +9065,13 @@
         <v>0.11992070346108101</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+    <row r="184" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C184" s="3" t="s">
         <v>9</v>
       </c>
@@ -8577,9 +9115,13 @@
         <v>2.5968839674237036E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C185" s="3" t="s">
         <v>7</v>
       </c>
@@ -8623,9 +9165,13 @@
         <v>2.5442541995730652E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+    <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C186" s="3" t="s">
         <v>11</v>
       </c>
@@ -8669,9 +9215,13 @@
         <v>2.3272022642255117E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+    <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C187" s="3" t="s">
         <v>12</v>
       </c>
@@ -8715,9 +9265,13 @@
         <v>1.1157090240037592E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
+    <row r="188" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C188" s="3" t="s">
         <v>8</v>
       </c>
@@ -8737,9 +9291,13 @@
         <v>2.2194805584196943E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
+    <row r="189" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C189" s="3" t="s">
         <v>6</v>
       </c>
@@ -8771,9 +9329,13 @@
         <v>4.09185862645716E-6</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
+    <row r="190" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C190" s="3" t="s">
         <v>14</v>
       </c>
@@ -8899,9 +9461,13 @@
         <v>3.4084500119102232E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
+    <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C193" s="3" t="s">
         <v>11</v>
       </c>
@@ -8945,9 +9511,13 @@
         <v>5.2385624244155318E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+    <row r="194" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C194" s="3" t="s">
         <v>12</v>
       </c>
@@ -8991,9 +9561,13 @@
         <v>3.4912542005893707E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
+    <row r="195" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C195" s="3" t="s">
         <v>9</v>
       </c>
@@ -9037,9 +9611,13 @@
         <v>3.9936543367276371E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
+    <row r="196" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C196" s="3" t="s">
         <v>7</v>
       </c>
@@ -9083,9 +9661,13 @@
         <v>6.7829517716994645E-5</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
+    <row r="197" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
@@ -9129,9 +9711,13 @@
         <v>4.0827109064893253E-5</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
+    <row r="198" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C198" s="3" t="s">
         <v>14</v>
       </c>
@@ -9301,9 +9887,13 @@
         <v>0.10284518978597054</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
+    <row r="202" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C202" s="3" t="s">
         <v>9</v>
       </c>
@@ -9347,9 +9937,13 @@
         <v>2.8310418920840046E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
+    <row r="203" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C203" s="3" t="s">
         <v>10</v>
       </c>
@@ -9393,9 +9987,13 @@
         <v>1.9735930591265258E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
+    <row r="204" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C204" s="3" t="s">
         <v>8</v>
       </c>
@@ -9439,9 +10037,13 @@
         <v>1.3196750864041982E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
+    <row r="205" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C205" s="3" t="s">
         <v>12</v>
       </c>
@@ -9485,9 +10087,13 @@
         <v>2.5667875651925868E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
+    <row r="206" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C206" s="3" t="s">
         <v>14</v>
       </c>
@@ -9607,9 +10213,13 @@
         <v>0.20341289927321612</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
+    <row r="209" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C209" s="3" t="s">
         <v>12</v>
       </c>
@@ -9653,9 +10263,13 @@
         <v>1.4639549753151191E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
+    <row r="210" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C210" s="3" t="s">
         <v>7</v>
       </c>
@@ -9699,9 +10313,13 @@
         <v>2.0486493215929502E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
+    <row r="211" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C211" s="3" t="s">
         <v>9</v>
       </c>
@@ -9745,9 +10363,13 @@
         <v>1.3935493209768727E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
+    <row r="212" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C212" s="3" t="s">
         <v>10</v>
       </c>
@@ -9791,9 +10413,13 @@
         <v>8.4901591693724106E-5</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
+    <row r="213" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C213" s="3" t="s">
         <v>14</v>
       </c>
@@ -9831,9 +10457,13 @@
         <v>7.5664540488077782E-5</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
+    <row r="214" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C214" s="3" t="s">
         <v>6</v>
       </c>
@@ -9897,9 +10527,13 @@
         <v>0.99149678056525947</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
+    <row r="216" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C216" s="3" t="s">
         <v>10</v>
       </c>
@@ -9931,9 +10565,13 @@
         <v>4.771714692925204E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
+    <row r="217" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C217" s="3" t="s">
         <v>14</v>
       </c>
@@ -9965,9 +10603,13 @@
         <v>2.5945618907935431E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
+    <row r="218" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C218" s="3" t="s">
         <v>7</v>
       </c>
@@ -10011,9 +10653,13 @@
         <v>1.1354972784204632E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+    <row r="219" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C219" s="3" t="s">
         <v>11</v>
       </c>
@@ -10095,9 +10741,13 @@
         <v>0.99113170533757933</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
+    <row r="221" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C221" s="3" t="s">
         <v>7</v>
       </c>
@@ -10141,9 +10791,13 @@
         <v>6.3684013405750596E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
+    <row r="222" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C222" s="3" t="s">
         <v>8</v>
       </c>
@@ -10187,9 +10841,13 @@
         <v>1.2700406720984176E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+    <row r="223" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C223" s="3" t="s">
         <v>12</v>
       </c>
@@ -10233,9 +10891,13 @@
         <v>5.5872232179063894E-4</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+    <row r="224" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C224" s="3" t="s">
         <v>5</v>
       </c>
@@ -10279,9 +10941,13 @@
         <v>4.0651235670189826E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+    <row r="225" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C225" s="3" t="s">
         <v>11</v>
       </c>
@@ -10375,9 +11041,13 @@
         <v>0.9211473801627954</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+    <row r="227" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C227" s="3" t="s">
         <v>11</v>
       </c>
@@ -10421,9 +11091,13 @@
         <v>6.1385166480256388E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+    <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C228" s="3" t="s">
         <v>10</v>
       </c>
@@ -10467,9 +11141,13 @@
         <v>9.8147412164124679E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+    <row r="229" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C229" s="3" t="s">
         <v>7</v>
       </c>
@@ -10513,9 +11191,13 @@
         <v>4.249144058520741E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+    <row r="230" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C230" s="3" t="s">
         <v>9</v>
       </c>
@@ -10559,9 +11241,13 @@
         <v>2.1039497906563021E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+    <row r="231" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C231" s="3" t="s">
         <v>12</v>
       </c>
@@ -10705,9 +11391,13 @@
         <v>0.2674586381550651</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+    <row r="234" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C234" s="3" t="s">
         <v>7</v>
       </c>
@@ -10751,9 +11441,13 @@
         <v>2.7067266595404153E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+    <row r="235" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C235" s="3" t="s">
         <v>10</v>
       </c>
@@ -10797,9 +11491,13 @@
         <v>1.8865031266042085E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+    <row r="236" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C236" s="3" t="s">
         <v>9</v>
       </c>
@@ -10843,9 +11541,13 @@
         <v>7.7031584957487249E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+    <row r="237" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C237" s="3" t="s">
         <v>12</v>
       </c>
@@ -10889,9 +11591,13 @@
         <v>5.0379852793976145E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+    <row r="238" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C238" s="3" t="s">
         <v>8</v>
       </c>
@@ -10923,9 +11629,13 @@
         <v>3.7269703552537438E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+    <row r="239" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C239" s="3" t="s">
         <v>14</v>
       </c>
@@ -11013,9 +11723,13 @@
         <v>0.97466554947589246</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+    <row r="241" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C241" s="3" t="s">
         <v>10</v>
       </c>
@@ -11059,9 +11773,13 @@
         <v>2.4742013843663403E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+    <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C242" s="3" t="s">
         <v>11</v>
       </c>
@@ -11105,9 +11823,13 @@
         <v>3.853026148969153E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+    <row r="243" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C243" s="3" t="s">
         <v>9</v>
       </c>
@@ -11151,9 +11873,13 @@
         <v>1.3523098855585538E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+    <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C244" s="3" t="s">
         <v>12</v>
       </c>
@@ -11197,9 +11923,13 @@
         <v>6.8732002372927001E-5</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+    <row r="245" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C245" s="3" t="s">
         <v>7</v>
       </c>
@@ -11287,9 +12017,13 @@
         <v>0.9740910524879659</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+    <row r="247" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C247" s="3" t="s">
         <v>11</v>
       </c>
@@ -11333,9 +12067,13 @@
         <v>1.9586634895209513E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+    <row r="248" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C248" s="3" t="s">
         <v>10</v>
       </c>
@@ -11379,9 +12117,13 @@
         <v>3.3864395550721456E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+    <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C249" s="3" t="s">
         <v>12</v>
       </c>
@@ -11425,9 +12167,13 @@
         <v>2.3956526456962238E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+    <row r="250" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C250" s="3" t="s">
         <v>7</v>
       </c>
@@ -11471,9 +12217,13 @@
         <v>4.1092102086191795E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+    <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C251" s="3" t="s">
         <v>9</v>
       </c>
@@ -11517,9 +12267,13 @@
         <v>1.2892412485580998E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+    <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C252" s="3" t="s">
         <v>14</v>
       </c>
@@ -11639,9 +12393,13 @@
         <v>0.21667031516551505</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+    <row r="255" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C255" s="3" t="s">
         <v>12</v>
       </c>
@@ -11685,9 +12443,13 @@
         <v>4.3522672141769088E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+    <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C256" s="3" t="s">
         <v>10</v>
       </c>
@@ -11731,9 +12493,13 @@
         <v>3.9849830178901365E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
+    <row r="257" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C257" s="3" t="s">
         <v>9</v>
       </c>
@@ -11777,9 +12543,13 @@
         <v>1.4908368822195094E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
+    <row r="258" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C258" s="3" t="s">
         <v>7</v>
       </c>
@@ -11823,9 +12593,13 @@
         <v>4.583570158599182E-4</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
+    <row r="259" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C259" s="3" t="s">
         <v>8</v>
       </c>
@@ -11857,9 +12631,13 @@
         <v>8.1996756303933684E-6</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
+    <row r="260" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C260" s="3" t="s">
         <v>14</v>
       </c>
@@ -11985,9 +12763,13 @@
         <v>0.1846401825029903</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
+    <row r="263" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C263" s="3" t="s">
         <v>11</v>
       </c>
@@ -12031,9 +12813,13 @@
         <v>2.582696136594137E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
+    <row r="264" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C264" s="3" t="s">
         <v>7</v>
       </c>
@@ -12077,9 +12863,13 @@
         <v>1.8435336945030259E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
+    <row r="265" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C265" s="3" t="s">
         <v>12</v>
       </c>
@@ -12123,9 +12913,13 @@
         <v>1.7785043537284109E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
+    <row r="266" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C266" s="3" t="s">
         <v>9</v>
       </c>
@@ -12269,9 +13063,13 @@
         <v>0.21325760389060272</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
+    <row r="269" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C269" s="3" t="s">
         <v>7</v>
       </c>
@@ -12315,9 +13113,13 @@
         <v>5.6981852498101298E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
+    <row r="270" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C270" s="3" t="s">
         <v>9</v>
       </c>
@@ -12361,9 +13163,13 @@
         <v>3.0144325403464373E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
+    <row r="271" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C271" s="3" t="s">
         <v>12</v>
       </c>
@@ -12407,9 +13213,13 @@
         <v>2.3038245722168615E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
+    <row r="272" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C272" s="3" t="s">
         <v>10</v>
       </c>
@@ -12453,9 +13263,13 @@
         <v>1.057507084742359E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
+    <row r="273" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C273" s="3" t="s">
         <v>14</v>
       </c>
@@ -12475,9 +13289,13 @@
         <v>1.2437334102719948E-4</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+    <row r="274" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C274" s="3" t="s">
         <v>6</v>
       </c>
@@ -12547,9 +13365,13 @@
         <v>0.98387494781295148</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+    <row r="276" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C276" s="3" t="s">
         <v>9</v>
       </c>
@@ -12593,9 +13415,13 @@
         <v>8.3237067766908836E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+    <row r="277" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C277" s="3" t="s">
         <v>14</v>
       </c>
@@ -12639,9 +13465,13 @@
         <v>6.3105742403939636E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+    <row r="278" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C278" s="3" t="s">
         <v>12</v>
       </c>
@@ -12679,9 +13509,13 @@
         <v>1.2507103856204899E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+    <row r="279" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C279" s="3" t="s">
         <v>11</v>
       </c>
@@ -12725,9 +13559,13 @@
         <v>1.861888760457707E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+    <row r="280" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C280" s="3" t="s">
         <v>7</v>
       </c>
@@ -12903,9 +13741,13 @@
         <v>7.5225864108992624E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+    <row r="284" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C284" s="3" t="s">
         <v>14</v>
       </c>
@@ -12937,9 +13779,13 @@
         <v>2.9120153349872335E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+    <row r="285" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C285" s="3" t="s">
         <v>11</v>
       </c>
@@ -12965,9 +13811,13 @@
         <v>6.6194941804894117E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+    <row r="286" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C286" s="3" t="s">
         <v>5</v>
       </c>
@@ -13037,9 +13887,13 @@
         <v>0.99828090119700241</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+    <row r="288" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C288" s="3" t="s">
         <v>10</v>
       </c>
@@ -13083,9 +13937,13 @@
         <v>1.2370067167027528E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+    <row r="289" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C289" s="3" t="s">
         <v>9</v>
       </c>
@@ -13129,9 +13987,13 @@
         <v>4.6427348762291228E-4</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+    <row r="290" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C290" s="3" t="s">
         <v>11</v>
       </c>
@@ -13163,9 +14025,13 @@
         <v>1.7818598672094711E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+    <row r="291" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C291" s="3" t="s">
         <v>7</v>
       </c>
@@ -13185,8 +14051,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="7"/>
+    <row r="292" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="B292" s="6" t="s">
         <v>93</v>
       </c>
@@ -13233,9 +14101,13 @@
         <v>0.94581256906086097</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+    <row r="293" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C293" s="3" t="s">
         <v>10</v>
       </c>
@@ -13279,9 +14151,13 @@
         <v>5.4184671910380337E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+    <row r="294" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C294" s="3" t="s">
         <v>14</v>
       </c>
@@ -13351,9 +14227,13 @@
         <v>0.99829126387997791</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+    <row r="296" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="C296" s="3" t="s">
         <v>7</v>
       </c>
@@ -13397,9 +14277,13 @@
         <v>1.7005253332758336E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
+    <row r="297" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="C297" s="3" t="s">
         <v>11</v>
       </c>
@@ -13519,9 +14403,13 @@
         <v>0.1264222381449886</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
+    <row r="300" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C300" s="3" t="s">
         <v>11</v>
       </c>
@@ -13565,9 +14453,13 @@
         <v>1.2490162763713928E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
+    <row r="301" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C301" s="3" t="s">
         <v>7</v>
       </c>
@@ -13611,9 +14503,13 @@
         <v>1.9023475127680984E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
+    <row r="302" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C302" s="3" t="s">
         <v>12</v>
       </c>
@@ -13657,9 +14553,13 @@
         <v>2.6293544113118388E-4</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="7"/>
-      <c r="B303" s="7"/>
+    <row r="303" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C303" s="3" t="s">
         <v>9</v>
       </c>
@@ -13853,9 +14753,13 @@
         <v>0.11113897910830113</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
+    <row r="307" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C307" s="3" t="s">
         <v>10</v>
       </c>
@@ -13899,9 +14803,13 @@
         <v>2.9050442640993619E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
+    <row r="308" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C308" s="3" t="s">
         <v>9</v>
       </c>
@@ -13945,9 +14853,13 @@
         <v>4.1071760878278948E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
+    <row r="309" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C309" s="3" t="s">
         <v>12</v>
       </c>
@@ -13991,9 +14903,13 @@
         <v>5.2226077998720035E-4</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
+    <row r="310" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C310" s="3" t="s">
         <v>6</v>
       </c>
@@ -14025,9 +14941,13 @@
         <v>9.051518853936947E-5</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="7"/>
-      <c r="B311" s="7"/>
+    <row r="311" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C311" s="3" t="s">
         <v>14</v>
       </c>
